--- a/files_params/ssrs_reports_mfc.xlsx
+++ b/files_params/ssrs_reports_mfc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyProjects\Python\_for-kvartplata\ssrs\files_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyProjects\Python\_for-kvartplata\py-ssrs\files_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE4C39E-C69A-47D2-9EE7-B79361DDB2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68405E6-117F-425C-9704-1C550CC2C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,15 +175,9 @@
     <t>D:\Оборотки по УК\Сабурова-19</t>
   </si>
   <si>
-    <t>folder</t>
-  </si>
-  <si>
     <t>Report kvart</t>
   </si>
   <si>
-    <t>report_name</t>
-  </si>
-  <si>
     <t>Оборотка_по_лицевым</t>
   </si>
   <si>
@@ -224,13 +218,19 @@
   </si>
   <si>
     <t>D:\Оборотки по УК\Авангард</t>
+  </si>
+  <si>
+    <t>ssrs_folder</t>
+  </si>
+  <si>
+    <t>ssrs_report_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +255,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -293,12 +307,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -318,15 +343,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2337,8 +2363,8 @@
   <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
-    <tableColumn id="11" xr3:uid="{EB754BD3-4D8D-477A-A3DD-AD37F1598750}" name="folder"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="report_name"/>
+    <tableColumn id="11" xr3:uid="{EB754BD3-4D8D-477A-A3DD-AD37F1598750}" name="ssrs_folder"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ssrs_report_name"/>
     <tableColumn id="12" xr3:uid="{A3FFE0EF-E6DB-477D-9B63-6A81E7B86909}" name="params"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="to_path" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="to_email"/>
@@ -2693,7 +2719,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,14 +2738,14 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
+      <c r="B1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
@@ -2739,19 +2765,19 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -2762,13 +2788,13 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -2786,13 +2812,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>47</v>
@@ -2804,7 +2830,7 @@
       <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2813,13 +2839,13 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
@@ -2831,26 +2857,26 @@
       <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -3093,7 +3119,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>31</v>
@@ -3137,7 +3163,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>32</v>
@@ -3181,7 +3207,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>33</v>
@@ -3676,7 +3702,7 @@
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="6">
         <v>252</v>
@@ -3717,7 +3743,7 @@
     </row>
     <row r="21" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6">
         <v>264</v>
